--- a/data/test_case_5.xlsx
+++ b/data/test_case_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C03B084-7675-1D47-BD28-3D839F941F7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC9ECF-1778-4049-9D16-72F1325C5FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
+    <workbookView xWindow="5420" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,43 +568,43 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>40</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>40</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>40</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">

--- a/data/test_case_5.xlsx
+++ b/data/test_case_5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC9ECF-1778-4049-9D16-72F1325C5FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B8AE58-63C8-4EB3-8A56-597899A5CEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5420" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,6 +84,9 @@
     <t>R26</t>
   </si>
   <si>
+    <t>self</t>
+  </si>
+  <si>
     <t>Brobdingnag</t>
   </si>
   <si>
@@ -94,16 +100,13 @@
   </si>
   <si>
     <t>Foremz</t>
-  </si>
-  <si>
-    <t>self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,12 +505,12 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,15 +560,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -589,16 +592,16 @@
         <v>40</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>40</v>
@@ -607,9 +610,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -657,9 +660,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -707,9 +710,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -757,9 +760,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -807,9 +810,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>30</v>

--- a/data/test_case_5.xlsx
+++ b/data/test_case_5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B8AE58-63C8-4EB3-8A56-597899A5CEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3778B8-9BCC-4244-A1E6-AE13D9F662D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -48,24 +48,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -76,12 +58,6 @@
   </si>
   <si>
     <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
   </si>
   <si>
     <t>self</t>
@@ -106,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,12 +481,12 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K1" sqref="K1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,34 +511,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -574,45 +526,21 @@
         <v>50</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>13</v>
-      </c>
-      <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -630,39 +558,15 @@
         <v>15</v>
       </c>
       <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -674,45 +578,21 @@
         <v>11</v>
       </c>
       <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>16</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -724,45 +604,21 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
       <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
         <v>8</v>
       </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -774,45 +630,21 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>30</v>
@@ -824,41 +656,25 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5">
-        <v>16</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="5">
-        <v>7</v>
-      </c>
-      <c r="L7" s="5">
-        <v>7</v>
-      </c>
-      <c r="M7" s="5">
-        <v>7</v>
-      </c>
-      <c r="N7" s="5">
-        <v>7</v>
-      </c>
-      <c r="O7" s="5">
-        <v>5</v>
-      </c>
-      <c r="P7" s="5">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test_case_5.xlsx
+++ b/data/test_case_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3778B8-9BCC-4244-A1E6-AE13D9F662D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFA3C4-7968-5445-A69E-15AF85AA5E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{68254562-532C-6C45-9D7D-CF6110294696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Foremz</t>
+  </si>
+  <si>
+    <t>Disaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +110,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +160,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -161,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -481,7 +492,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,6 +522,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -537,6 +551,9 @@
       <c r="H2">
         <v>3</v>
       </c>
+      <c r="I2" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -563,6 +580,9 @@
       <c r="H3">
         <v>20</v>
       </c>
+      <c r="I3" s="6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -589,6 +609,9 @@
       <c r="H4">
         <v>6</v>
       </c>
+      <c r="I4" s="6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -615,6 +638,9 @@
       <c r="H5">
         <v>8</v>
       </c>
+      <c r="I5" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -641,6 +667,9 @@
       <c r="H6">
         <v>7</v>
       </c>
+      <c r="I6" s="6">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -667,7 +696,9 @@
       <c r="H7" s="5">
         <v>7</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6">
+        <v>0.13</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
